--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C91433-00E3-42A1-A7A3-C51661167654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C5B04-590D-472C-99E8-8EDC836D8263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="XLRCODE_ENV" sheetId="11" r:id="rId5"/>
     <sheet name="XLRSCRIPT" sheetId="17" r:id="rId6"/>
     <sheet name="XLRSCRIPT_ENV" sheetId="18" r:id="rId7"/>
-    <sheet name="XLRFUNCTION" sheetId="13" r:id="rId8"/>
-    <sheet name="XLRFUNCTION_ENV" sheetId="16" r:id="rId9"/>
+    <sheet name="XLRFUNC" sheetId="13" r:id="rId8"/>
+    <sheet name="XLRFUNC_ENV" sheetId="16" r:id="rId9"/>
     <sheet name="XLRGRAPH" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
   <si>
     <t>Parameters</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>MyWorld</t>
-  </si>
-  <si>
-    <t>XLRFUNCTION</t>
   </si>
   <si>
     <t>FunctionName</t>
@@ -555,24 +552,15 @@
     <t>Run R code in a local environment and transfer values from and to Excel. Function memory is cleared after calculation.</t>
   </si>
   <si>
-    <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
-  </si>
-  <si>
     <t>Name of the environment in which to run the R code. If omitted or empty, code is run inside Global environment.</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. In case one wants to list arguments in the default order received by the function, without identifying them, provide "..." as a parameter followed by the desired arguments. Mixing identified and non-identified arguments is possible as long as all non-identified parameters come at the end. Moreover, one can pass a string with the literal specification of parameter names and their respective arguments as in R code. For that, one should pass "*" as the XLRFUNCTION parameter name and the literal R expression as its value.</t>
-  </si>
-  <si>
     <t>c(1,2,3,4), ncol=2</t>
   </si>
   <si>
-    <t>XLRFUNCTION_ENV</t>
-  </si>
-  <si>
     <t>Call an R function in a pre-specified environment and transfer values from and to Excel</t>
   </si>
   <si>
@@ -588,9 +576,6 @@
     <t>(UNDER DEVELOPMENT) Plot graph generated with R code</t>
   </si>
   <si>
-    <t>Version: 0.1</t>
-  </si>
-  <si>
     <t>Author: Eduardo Amaral</t>
   </si>
   <si>
@@ -634,6 +619,36 @@
   </si>
   <si>
     <t>Function returns TRUE if successful, while an image object is added to the worksheet.</t>
+  </si>
+  <si>
+    <t>XLRFUNC</t>
+  </si>
+  <si>
+    <t>XLRFUNC_ENV</t>
+  </si>
+  <si>
+    <t>Version: 0.1.2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>as.Date('2002-12-31') -as.Date(0, origin="1899-12-30")</t>
+  </si>
+  <si>
+    <t>Date matrix</t>
+  </si>
+  <si>
+    <t>as.Date(c('2002-12-31', '2003-01-01')) -as.Date(0, origin="1899-12-30")</t>
+  </si>
+  <si>
+    <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (d) =&gt; date, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
+  </si>
+  <si>
+    <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. In case one wants to list arguments in the default order received by the function, without identifying them, provide "..." as a parameter followed by the desired arguments. Mixing identified and non-identified arguments is possible as long as all non-identified parameters come at the end. Moreover, one can pass a string with the literal specification of parameter names and their respective arguments as in R code. For that, one should pass "*" as the =XLRFUNC parameter name and the literal R expression as its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (d) =&gt; date, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
+  </si>
+  <si>
+    <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. In case one wants to list arguments in the default order received by the function, without identifying them, provide "..." as a parameter followed by the desired arguments. Mixing identified and non-identified arguments is possible as long as all non-identified parameters come at the end. Moreover, one can pass a string with the literal specification of parameter names and their respective arguments as in R code. For that, one should pass "*" as the XLRFUNC parameter name and the literal R expression as its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (d) =&gt; date, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
   </si>
 </sst>
 </file>
@@ -932,22 +947,22 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Saída" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -965,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1263,7 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAB4AE-0D13-4266-B62E-7E643DED0D4D}">
   <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1297,7 +1314,7 @@
     <row r="3" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1323,7 +1340,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1349,7 +1366,7 @@
     <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -1375,10 +1392,10 @@
     <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -1427,7 +1444,7 @@
     <row r="8" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -1477,7 +1494,7 @@
     <row r="10" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -1527,7 +1544,7 @@
     <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -1577,7 +1594,7 @@
     <row r="14" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -1627,7 +1644,7 @@
     <row r="16" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -1736,7 +1753,7 @@
       <c r="B20" s="24"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -1765,7 +1782,7 @@
       <c r="B21" s="24"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -1794,7 +1811,7 @@
       <c r="B22" s="24"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -1823,7 +1840,7 @@
       <c r="B23" s="24"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -1852,7 +1869,7 @@
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -1966,13 +1983,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -1981,11 +1998,11 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -2012,19 +2029,19 @@
     </row>
     <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -2086,19 +2103,19 @@
     <row r="16" spans="1:15" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="D16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="H16" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="19" t="e" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">_xll.XLRGRAPH($D$16,$E$16,$F$16,$G$16,$H$16)</f>
@@ -2112,11 +2129,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O76" sqref="O76"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,12 +2152,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2152,20 +2169,20 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="K5" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="K5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -2315,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="26">
         <v>1.9411736473294385</v>
@@ -2337,7 +2354,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F17" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="24">
         <v>6.4714973119073472E-5</v>
@@ -2361,16 +2378,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>100</v>
       </c>
       <c r="K19" s="26" t="str" cm="1">
         <f t="array" ref="K19:N22">_xll.XLRCODE(D19)</f>
@@ -2388,7 +2405,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="24">
         <v>1</v>
@@ -2414,7 +2431,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F21" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="24">
         <v>4</v>
@@ -2440,7 +2457,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="24">
         <v>7</v>
@@ -2472,7 +2489,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2493,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2514,13 +2531,13 @@
         <v>31</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="24"/>
       <c r="K28" s="27" t="str" cm="1">
@@ -2537,13 +2554,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F29" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="H29" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="I29" s="24"/>
       <c r="K29" s="24" t="str">
@@ -2691,57 +2708,57 @@
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>29</v>
+        <v>183</v>
+      </c>
+      <c r="F42" s="28">
+        <v>37621</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="K42" s="24" t="str" cm="1">
+      <c r="K42" s="28" cm="1">
         <f t="array" ref="K42">_xll.XLRCODE(D42)</f>
-        <v>1+2i</v>
+        <v>37621</v>
       </c>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>29</v>
+        <v>185</v>
+      </c>
+      <c r="F44" s="28">
+        <v>37621</v>
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="K44" s="24" t="str" cm="1">
+      <c r="K44" s="28" cm="1">
         <f t="array" ref="K44:K45">_xll.XLRCODE(D44)</f>
-        <v>1+2i</v>
+        <v>37621</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F45" s="24" t="s">
-        <v>110</v>
+      <c r="F45" s="28">
+        <v>37622</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="K45" s="24" t="str">
-        <v>2+3i</v>
+      <c r="K45" s="28">
+        <v>37622</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -2749,911 +2766,967 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>111</v>
-      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="K47" s="24" t="str" cm="1">
-        <f t="array" ref="K47:L48">_xll.XLRCODE(D47)</f>
+        <f t="array" ref="K47">_xll.XLRCODE(D47)</f>
         <v>1+2i</v>
       </c>
-      <c r="L47" s="24" t="str">
-        <v>4+10i</v>
-      </c>
+      <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F48" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="K48" s="24" t="str">
-        <v>2+3i</v>
-      </c>
-      <c r="L48" s="24" t="str">
-        <v>7+12i</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="K49" s="24" t="str" cm="1">
+        <f t="array" ref="K49:K50">_xll.XLRCODE(D49)</f>
+        <v>1+2i</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" s="24" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="K50" s="24" t="str" cm="1">
-        <f t="array" ref="K50">_xll.XLRCODE(D50)</f>
-        <v/>
+      <c r="K50" s="24" t="str">
+        <v>2+3i</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
     </row>
-    <row r="52" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>115</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="K52" s="24" t="str" cm="1">
-        <f t="array" ref="K52:N54">_xll.XLRCODE(D52)</f>
-        <v/>
+        <f t="array" ref="K52:L53">_xll.XLRCODE(D52)</f>
+        <v>1+2i</v>
       </c>
       <c r="L52" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M52" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N52" s="24" t="str">
-        <v>V3</v>
-      </c>
+        <v>4+10i</v>
+      </c>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F53" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="K53" s="24" t="str">
+        <v>2+3i</v>
+      </c>
+      <c r="L53" s="24" t="str">
+        <v>7+12i</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="K55" s="24" t="str" cm="1">
+        <f t="array" ref="K55">_xll.XLRCODE(D55)</f>
+        <v/>
+      </c>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+    </row>
+    <row r="57" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" s="24" t="str" cm="1">
+        <f t="array" ref="K57:N59">_xll.XLRCODE(D57)</f>
+        <v/>
+      </c>
+      <c r="L57" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M57" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N57" s="24" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F58" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="24">
+        <v>1</v>
+      </c>
+      <c r="H58" s="24">
+        <v>2</v>
+      </c>
+      <c r="I58" s="24">
+        <v>3</v>
+      </c>
+      <c r="K58" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L58" s="24">
+        <v>1</v>
+      </c>
+      <c r="M58" s="24">
+        <v>2</v>
+      </c>
+      <c r="N58" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F59" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G59" s="24">
+        <v>4</v>
+      </c>
+      <c r="H59" s="24">
+        <v>5</v>
+      </c>
+      <c r="I59" s="24">
+        <v>6</v>
+      </c>
+      <c r="K59" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L59" s="24">
+        <v>4</v>
+      </c>
+      <c r="M59" s="24">
+        <v>5</v>
+      </c>
+      <c r="N59" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="K62" s="24" t="e" cm="1">
+        <f t="array" ref="K62">_xll.XLRCODE(D62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="24">
-        <v>2</v>
-      </c>
-      <c r="I53" s="24">
-        <v>3</v>
-      </c>
-      <c r="K53" s="24" t="str">
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="K64" s="24" t="b" cm="1">
+        <f t="array" ref="K64">_xll.XLRCODE(D64)</f>
         <v>1</v>
       </c>
-      <c r="L53" s="24">
-        <v>1</v>
-      </c>
-      <c r="M53" s="24">
-        <v>2</v>
-      </c>
-      <c r="N53" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F54" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="24">
-        <v>4</v>
-      </c>
-      <c r="H54" s="24">
-        <v>5</v>
-      </c>
-      <c r="I54" s="24">
-        <v>6</v>
-      </c>
-      <c r="K54" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="L54" s="24">
-        <v>4</v>
-      </c>
-      <c r="M54" s="24">
-        <v>5</v>
-      </c>
-      <c r="N54" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="K57" s="24" t="e" cm="1">
-        <f t="array" ref="K57">_xll.XLRCODE(D57)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="K59" s="24" t="b" cm="1">
-        <f t="array" ref="K59">_xll.XLRCODE(D59)</f>
-        <v>1</v>
-      </c>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" s="24" t="s">
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="I66" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K61" s="24" t="str" cm="1">
-        <f t="array" ref="K61:N63">_xll.XLRCODE(D61,"myDF(df)",{1,2,3;"a","b","c"})</f>
+      <c r="K66" s="24" t="str" cm="1">
+        <f t="array" ref="K66:N68">_xll.XLRCODE(D66,"myDF(df)",{1,2,3;"a","b","c"})</f>
         <v/>
       </c>
-      <c r="L61" s="24" t="str">
+      <c r="L66" s="24" t="str">
         <v>V1</v>
       </c>
-      <c r="M61" s="24" t="str">
+      <c r="M66" s="24" t="str">
         <v>V2</v>
       </c>
-      <c r="N61" s="24" t="str">
+      <c r="N66" s="24" t="str">
         <v>V3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F62" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K62" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L62" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="M62" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="N62" s="24" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F63" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="K63" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="L63" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M63" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N63" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K65" s="24" t="str" cm="1">
-        <f t="array" ref="K65:N67">_xll.XLRCODE(D65,"myDF(dfn)",{1,2,3;4,5,6})</f>
-        <v/>
-      </c>
-      <c r="L65" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M65" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N65" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K66" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L66" s="24">
-        <v>1</v>
-      </c>
-      <c r="M66" s="24">
-        <v>2</v>
-      </c>
-      <c r="N66" s="24">
-        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F67" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="K67" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L67" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M67" s="24" t="str">
         <v>2</v>
       </c>
-      <c r="L67" s="24">
-        <v>4</v>
-      </c>
-      <c r="M67" s="24">
-        <v>5</v>
-      </c>
-      <c r="N67" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K69" s="24" t="str" cm="1">
-        <f t="array" ref="K69:N71">_xll.XLRCODE(D69,"myDF(dfh)",{"","colA","colB","colC";"rowA",1,2,3;"rowB","a","b","c"})</f>
+      <c r="N67" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L68" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M68" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N68" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K70" s="24" t="str" cm="1">
+        <f t="array" ref="K70:N72">_xll.XLRCODE(D70,"myDF(dfn)",{1,2,3;4,5,6})</f>
         <v/>
       </c>
-      <c r="L69" s="24" t="str">
-        <v>colA</v>
-      </c>
-      <c r="M69" s="24" t="str">
-        <v>colB</v>
-      </c>
-      <c r="N69" s="24" t="str">
-        <v>colC</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K70" s="24" t="str">
-        <v>rowA</v>
-      </c>
       <c r="L70" s="24" t="str">
-        <v>1</v>
+        <v>V1</v>
       </c>
       <c r="M70" s="24" t="str">
-        <v>2</v>
+        <v>V2</v>
       </c>
       <c r="N70" s="24" t="str">
-        <v>3</v>
+        <v>V3</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K71" s="24" t="str">
-        <v>rowB</v>
-      </c>
-      <c r="L71" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M71" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N71" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="24">
+        <v>1</v>
+      </c>
+      <c r="M71" s="24">
+        <v>2</v>
+      </c>
+      <c r="N71" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F72" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K72" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L72" s="24">
+        <v>4</v>
+      </c>
+      <c r="M72" s="24">
+        <v>5</v>
+      </c>
+      <c r="N72" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="24" t="s">
+      <c r="H74" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="I74" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="I73" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K73" s="24" t="str" cm="1">
-        <f t="array" ref="K73:N75">_xll.XLRCODE(D73,"myDF(dfhn)",{"","colA","colB","colC";"rowA",1,2,3;"rowB",4,5,6})</f>
+      <c r="K74" s="24" t="str" cm="1">
+        <f t="array" ref="K74:N76">_xll.XLRCODE(D74,"myDF(dfh)",{"","colA","colB","colC";"rowA",1,2,3;"rowB","a","b","c"})</f>
         <v/>
       </c>
-      <c r="L73" s="24" t="str">
+      <c r="L74" s="24" t="str">
         <v>colA</v>
       </c>
-      <c r="M73" s="24" t="str">
+      <c r="M74" s="24" t="str">
         <v>colB</v>
       </c>
-      <c r="N73" s="24" t="str">
+      <c r="N74" s="24" t="str">
         <v>colC</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G74" s="24">
-        <v>1</v>
-      </c>
-      <c r="H74" s="24">
-        <v>2</v>
-      </c>
-      <c r="I74" s="24">
-        <v>3</v>
-      </c>
-      <c r="K74" s="24" t="str">
-        <v>rowA</v>
-      </c>
-      <c r="L74" s="24">
-        <v>1</v>
-      </c>
-      <c r="M74" s="24">
-        <v>2</v>
-      </c>
-      <c r="N74" s="24">
-        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L75" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M75" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="N75" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L76" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M76" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N76" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F75" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G75" s="24">
-        <v>4</v>
-      </c>
-      <c r="H75" s="24">
-        <v>5</v>
-      </c>
-      <c r="I75" s="24">
-        <v>6</v>
-      </c>
-      <c r="K75" s="24" t="str">
-        <v>rowB</v>
-      </c>
-      <c r="L75" s="24">
-        <v>4</v>
-      </c>
-      <c r="M75" s="24">
-        <v>5</v>
-      </c>
-      <c r="N75" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" s="24" t="s">
+      <c r="D78" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="I78" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K77" s="24" t="str" cm="1">
-        <f t="array" ref="K77:N79">_xll.XLRCODE(D77,"myDF(dfc)",{"colA","colB","colC";1,2,3;"a","b","c"})</f>
+      <c r="K78" s="24" t="str" cm="1">
+        <f t="array" ref="K78:N80">_xll.XLRCODE(D78,"myDF(dfhn)",{"","colA","colB","colC";"rowA",1,2,3;"rowB",4,5,6})</f>
         <v/>
       </c>
-      <c r="L77" s="24" t="str">
+      <c r="L78" s="24" t="str">
         <v>colA</v>
       </c>
-      <c r="M77" s="24" t="str">
+      <c r="M78" s="24" t="str">
         <v>colB</v>
       </c>
-      <c r="N77" s="24" t="str">
+      <c r="N78" s="24" t="str">
         <v>colC</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I78" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K78" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L78" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="M78" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="N78" s="24" t="str">
-        <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="32" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>75</v>
+        <v>141</v>
+      </c>
+      <c r="G79" s="24">
+        <v>1</v>
+      </c>
+      <c r="H79" s="24">
+        <v>2</v>
+      </c>
+      <c r="I79" s="24">
+        <v>3</v>
       </c>
       <c r="K79" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L79" s="24">
+        <v>1</v>
+      </c>
+      <c r="M79" s="24">
         <v>2</v>
       </c>
-      <c r="L79" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M79" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N79" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K81" s="24" t="str" cm="1">
-        <f t="array" ref="K81:N83">_xll.XLRCODE(D81,"myDF(dfr)",{"rowA",1,2,3;"rowB","a","b","c"})</f>
+      <c r="N79" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" s="24">
+        <v>4</v>
+      </c>
+      <c r="H80" s="24">
+        <v>5</v>
+      </c>
+      <c r="I80" s="24">
+        <v>6</v>
+      </c>
+      <c r="K80" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L80" s="24">
+        <v>4</v>
+      </c>
+      <c r="M80" s="24">
+        <v>5</v>
+      </c>
+      <c r="N80" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K82" s="24" t="str" cm="1">
+        <f t="array" ref="K82:N84">_xll.XLRCODE(D82,"myDF(dfc)",{"colA","colB","colC";1,2,3;"a","b","c"})</f>
         <v/>
       </c>
-      <c r="L81" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M81" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N81" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K82" s="24" t="str">
-        <v>rowA</v>
-      </c>
       <c r="L82" s="24" t="str">
-        <v>1</v>
+        <v>colA</v>
       </c>
       <c r="M82" s="24" t="str">
-        <v>2</v>
+        <v>colB</v>
       </c>
       <c r="N82" s="24" t="str">
-        <v>3</v>
+        <v>colC</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="32" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K83" s="24" t="str">
-        <v>rowB</v>
+        <v>1</v>
       </c>
       <c r="L83" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M83" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="N83" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L84" s="24" t="str">
         <v>a</v>
       </c>
-      <c r="M83" s="24" t="str">
+      <c r="M84" s="24" t="str">
         <v>b</v>
       </c>
-      <c r="N83" s="24" t="str">
+      <c r="N84" s="24" t="str">
         <v>c</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="K85" s="24" t="str" cm="1">
-        <f t="array" ref="K85:N87">_xll.XLRCODE(D85,"myDF(dfcn)",{"colA","colB","colC";1,2,3;4,5,6})</f>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K86" s="24" t="str" cm="1">
+        <f t="array" ref="K86:N88">_xll.XLRCODE(D86,"myDF(dfr)",{"rowA",1,2,3;"rowB","a","b","c"})</f>
         <v/>
       </c>
-      <c r="L85" s="24" t="str">
-        <v>colA</v>
-      </c>
-      <c r="M85" s="24" t="str">
-        <v>colB</v>
-      </c>
-      <c r="N85" s="24" t="str">
-        <v>colC</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G86" s="24">
-        <v>1</v>
-      </c>
-      <c r="H86" s="24">
-        <v>2</v>
-      </c>
-      <c r="I86" s="24">
-        <v>3</v>
-      </c>
-      <c r="K86" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L86" s="24">
-        <v>1</v>
-      </c>
-      <c r="M86" s="24">
-        <v>2</v>
-      </c>
-      <c r="N86" s="24">
-        <v>3</v>
+      <c r="L86" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M86" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N86" s="24" t="str">
+        <v>V3</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F87" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G87" s="24">
-        <v>4</v>
-      </c>
-      <c r="H87" s="24">
-        <v>5</v>
-      </c>
-      <c r="I87" s="24">
-        <v>6</v>
-      </c>
       <c r="K87" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L87" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M87" s="24" t="str">
         <v>2</v>
       </c>
-      <c r="L87" s="24">
-        <v>4</v>
-      </c>
-      <c r="M87" s="24">
-        <v>5</v>
-      </c>
-      <c r="N87" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K89" s="24" t="str" cm="1">
-        <f t="array" ref="K89:N91">_xll.XLRCODE(D89,"myDF(dfrn)",{"rowA",1,2,3;"rowB",4,5,6})</f>
+      <c r="N87" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L88" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M88" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N88" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K90" s="24" t="str" cm="1">
+        <f t="array" ref="K90:N92">_xll.XLRCODE(D90,"myDF(dfcn)",{"colA","colB","colC";1,2,3;4,5,6})</f>
         <v/>
       </c>
-      <c r="L89" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M89" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N89" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="24">
-        <v>1</v>
-      </c>
-      <c r="H90" s="24">
-        <v>2</v>
-      </c>
-      <c r="I90" s="24">
-        <v>3</v>
-      </c>
-      <c r="K90" s="24" t="str">
-        <v>rowA</v>
-      </c>
-      <c r="L90" s="24">
-        <v>1</v>
-      </c>
-      <c r="M90" s="24">
-        <v>2</v>
-      </c>
-      <c r="N90" s="24">
-        <v>3</v>
+      <c r="L90" s="24" t="str">
+        <v>colA</v>
+      </c>
+      <c r="M90" s="24" t="str">
+        <v>colB</v>
+      </c>
+      <c r="N90" s="24" t="str">
+        <v>colC</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="32" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G91" s="24">
+        <v>1</v>
+      </c>
+      <c r="H91" s="24">
+        <v>2</v>
+      </c>
+      <c r="I91" s="24">
+        <v>3</v>
+      </c>
+      <c r="K91" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L91" s="24">
+        <v>1</v>
+      </c>
+      <c r="M91" s="24">
+        <v>2</v>
+      </c>
+      <c r="N91" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" s="24">
         <v>4</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H92" s="24">
         <v>5</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I92" s="24">
         <v>6</v>
       </c>
-      <c r="K91" s="24" t="str">
+      <c r="K92" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L92" s="24">
+        <v>4</v>
+      </c>
+      <c r="M92" s="24">
+        <v>5</v>
+      </c>
+      <c r="N92" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K94" s="24" t="str" cm="1">
+        <f t="array" ref="K94:N96">_xll.XLRCODE(D94,"myDF(dfrn)",{"rowA",1,2,3;"rowB",4,5,6})</f>
+        <v/>
+      </c>
+      <c r="L94" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M94" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N94" s="24" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95" s="24">
+        <v>1</v>
+      </c>
+      <c r="H95" s="24">
+        <v>2</v>
+      </c>
+      <c r="I95" s="24">
+        <v>3</v>
+      </c>
+      <c r="K95" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L95" s="24">
+        <v>1</v>
+      </c>
+      <c r="M95" s="24">
+        <v>2</v>
+      </c>
+      <c r="N95" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" s="24">
+        <v>4</v>
+      </c>
+      <c r="H96" s="24">
+        <v>5</v>
+      </c>
+      <c r="I96" s="24">
+        <v>6</v>
+      </c>
+      <c r="K96" s="24" t="str">
         <v>rowB</v>
       </c>
-      <c r="L91" s="24">
+      <c r="L96" s="24">
         <v>4</v>
       </c>
-      <c r="M91" s="24">
+      <c r="M96" s="24">
         <v>5</v>
       </c>
-      <c r="N91" s="24">
+      <c r="N96" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3684,27 +3757,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -8078,7 +8151,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8103,7 +8176,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -8118,11 +8191,11 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8153,12 +8226,12 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8240,7 +8313,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,11 +8353,11 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8305,10 +8378,10 @@
     </row>
     <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -8327,12 +8400,12 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8358,22 +8431,22 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="D11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>59</v>
@@ -8421,7 +8494,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8437,7 +8510,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -8446,7 +8519,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -8461,11 +8534,11 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8486,22 +8559,22 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8527,7 +8600,7 @@
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="D10" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>50</v>
@@ -8551,7 +8624,7 @@
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>54</v>
@@ -8583,7 +8656,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8599,7 +8672,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -8608,7 +8681,7 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -8623,11 +8696,11 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8648,10 +8721,10 @@
     </row>
     <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -8660,22 +8733,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8701,22 +8774,22 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="D11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>59</v>
@@ -8731,7 +8804,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>54</v>
@@ -8762,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5044C5ED-33D5-4575-93EF-D4978E44B5E1}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8781,7 +8854,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8790,7 +8863,7 @@
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -8805,11 +8878,11 @@
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -8830,10 +8903,10 @@
     </row>
     <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -8842,22 +8915,22 @@
     </row>
     <row r="7" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -8883,19 +8956,19 @@
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="D11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>59</v>
@@ -8907,11 +8980,11 @@
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>56</v>
@@ -8920,7 +8993,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="19" t="str" cm="1">
-        <f t="array" ref="L12">_xll.XLRFUNCTION($D$12,$E$12,$F$12,$G$12,$H$12)</f>
+        <f t="array" ref="L12">_xll.XLRFUNC($D$12,$E$12,$F$12,$G$12,$H$12)</f>
         <v>Hello World</v>
       </c>
       <c r="M12" s="18"/>
@@ -8935,25 +9008,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="J14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>59</v>
@@ -8964,17 +9037,17 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="H15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>56</v>
@@ -8983,7 +9056,7 @@
         <v>57</v>
       </c>
       <c r="L15" s="19" t="str" cm="1">
-        <f t="array" ref="L15">_xll.XLRFUNCTION($D$15,$E$15,$F$15,$G$15,$H$15,$I$15,$J$15)</f>
+        <f t="array" ref="L15">_xll.XLRFUNC($D$15,$E$15,$F$15,$G$15,$H$15,$I$15,$J$15)</f>
         <v>Hello-World</v>
       </c>
       <c r="M15" s="18"/>
@@ -8998,25 +9071,25 @@
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>59</v>
@@ -9027,13 +9100,13 @@
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="17">
         <v>1</v>
@@ -9048,7 +9121,7 @@
         <v>4</v>
       </c>
       <c r="L18" s="20" cm="1">
-        <f t="array" ref="L18">_xll.XLRFUNCTION($D$18,$E$18,$F$18,$G$18,$H$18,$I$18)</f>
+        <f t="array" ref="L18">_xll.XLRFUNC($D$18,$E$18,$F$18,$G$18,$H$18,$I$18)</f>
         <v>3</v>
       </c>
       <c r="M18" s="18"/>
@@ -9063,16 +9136,16 @@
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>59</v>
@@ -9083,17 +9156,17 @@
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L21" s="33" cm="1">
-        <f t="array" ref="L21:M22">_xll.XLRFUNCTION($D$21,$E$21,$F$21,$G$21)</f>
+        <f t="array" ref="L21:M22">_xll.XLRFUNC($D$21,$E$21,$F$21,$G$21)</f>
         <v>1</v>
       </c>
       <c r="M21" s="7">
@@ -9120,22 +9193,22 @@
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>59</v>
@@ -9146,23 +9219,23 @@
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" s="17">
         <v>2</v>
       </c>
       <c r="L25" s="20" cm="1">
-        <f t="array" ref="L25:M27">_xll.XLRFUNCTION($D$25,$E$25,$F$25,$G$25:$G$30,$H$25,$I$25)</f>
+        <f t="array" ref="L25:M27">_xll.XLRFUNC($D$25,$E$25,$F$25,$G$25:$G$30,$H$25,$I$25)</f>
         <v>1</v>
       </c>
       <c r="M25" s="20">
@@ -9271,7 +9344,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9289,7 +9362,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -9298,7 +9371,7 @@
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -9313,11 +9386,11 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
+      <c r="A4" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -9338,10 +9411,10 @@
     </row>
     <row r="6" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -9350,10 +9423,10 @@
     </row>
     <row r="7" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -9362,22 +9435,22 @@
     </row>
     <row r="8" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -9411,22 +9484,22 @@
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="D13" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>59</v>
@@ -9439,11 +9512,11 @@
       <c r="A14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>56</v>
@@ -9452,7 +9525,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="19" t="str" cm="1">
-        <f t="array" ref="M14">_xll.XLRFUNCTION_ENV($D$14, $E$14,$F$14,$G$14,$H$14,$I$14)</f>
+        <f t="array" ref="M14">_xll.XLRFUNC_ENV($D$14, $E$14,$F$14,$G$14,$H$14,$I$14)</f>
         <v>Hello World</v>
       </c>
       <c r="N14" s="18"/>
@@ -9467,28 +9540,28 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="K16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>59</v>
@@ -9499,20 +9572,20 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>56</v>
@@ -9521,7 +9594,7 @@
         <v>57</v>
       </c>
       <c r="M17" s="19" t="str" cm="1">
-        <f t="array" ref="M17">_xll.XLRFUNCTION_ENV($D$17, $E$17,$F$17,$G$17,$H$17,$I$17,$J$17,$K$17)</f>
+        <f t="array" ref="M17">_xll.XLRFUNC_ENV($D$17, $E$17,$F$17,$G$17,$H$17,$I$17,$J$17,$K$17)</f>
         <v>Hello-World</v>
       </c>
       <c r="N17" s="18"/>
@@ -9536,28 +9609,28 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="K19" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>59</v>
@@ -9568,16 +9641,16 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="G20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="17">
         <v>1</v>
@@ -9592,7 +9665,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="20" cm="1">
-        <f t="array" ref="M20">_xll.XLRFUNCTION_ENV($D$20, $E$20,$F$20,$G$20,$H$20,$I$20,$J$20)</f>
+        <f t="array" ref="M20">_xll.XLRFUNC_ENV($D$20, $E$20,$F$20,$G$20,$H$20,$I$20,$J$20)</f>
         <v>3</v>
       </c>
       <c r="N20" s="18"/>
@@ -9607,19 +9680,19 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>59</v>
@@ -9630,20 +9703,20 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M23" s="33" cm="1">
-        <f t="array" ref="M23:N24">_xll.XLRFUNCTION_ENV($D$23, $E$23,$F$23,$G$23,$H$23)</f>
+        <f t="array" ref="M23:N24">_xll.XLRFUNC_ENV($D$23, $E$23,$F$23,$G$23,$H$23)</f>
         <v>1</v>
       </c>
       <c r="N23" s="7">
@@ -9670,25 +9743,25 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="I26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>59</v>
@@ -9699,26 +9772,26 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="17">
         <v>1</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="17">
         <v>2</v>
       </c>
       <c r="M27" s="20" cm="1">
-        <f t="array" ref="M27:N29">_xll.XLRFUNCTION_ENV($D$27, $E$27,$F$27,$G$27,$H$27:$H$32,$I$27,$J$27)</f>
+        <f t="array" ref="M27:N29">_xll.XLRFUNC_ENV($D$27, $E$27,$F$27,$G$27,$H$27:$H$32,$I$27,$J$27)</f>
         <v>1</v>
       </c>
       <c r="N27" s="20">

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C5B04-590D-472C-99E8-8EDC836D8263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF41CA-C4A9-4F5B-9120-970F6E2DADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
@@ -627,9 +627,6 @@
     <t>XLRFUNC_ENV</t>
   </si>
   <si>
-    <t>Version: 0.1.2</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. In case one wants to list arguments in the default order received by the function, without identifying them, provide "..." as a parameter followed by the desired arguments. Mixing identified and non-identified arguments is possible as long as all non-identified parameters come at the end. Moreover, one can pass a string with the literal specification of parameter names and their respective arguments as in R code. For that, one should pass "*" as the XLRFUNC parameter name and the literal R expression as its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (d) =&gt; date, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
+  </si>
+  <si>
+    <t>Version: 0.1.3</t>
   </si>
 </sst>
 </file>
@@ -958,11 +958,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
-    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Saída" xfId="3" builtinId="21"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -980,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,7 +1279,7 @@
   <dimension ref="B2:W26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1340,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="28">
         <v>37621</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="F44" s="28">
         <v>37621</v>
@@ -8231,7 +8231,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8405,7 +8405,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8574,7 +8574,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8748,7 +8748,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8930,7 +8930,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -9450,7 +9450,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF41CA-C4A9-4F5B-9120-970F6E2DADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E445C26-7FB7-47E5-9A3E-45093D21D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="192">
   <si>
     <t>Parameters</t>
   </si>
@@ -648,7 +648,16 @@
     <t>Sequence of optional paired parameters, where the first parameter is a valid variable name (as a text string) and the second parameter is its value. In case one wants to list arguments in the default order received by the function, without identifying them, provide "..." as a parameter followed by the desired arguments. Mixing identified and non-identified arguments is possible as long as all non-identified parameters come at the end. Moreover, one can pass a string with the literal specification of parameter names and their respective arguments as in R code. For that, one should pass "*" as the XLRFUNC parameter name and the literal R expression as its value. Variable names with the (optional) following suffixes are coerced to specific data types: (n) =&gt; double, (s) =&gt; string, (d) =&gt; date, (df) =&gt; data frame. Other coercions are available at the "Data types" worksheet.</t>
   </si>
   <si>
-    <t>Version: 0.1.3</t>
+    <t>Coded argument (coerced to asis)</t>
+  </si>
+  <si>
+    <t>(asis) = parses a code string as the object it generates if run</t>
+  </si>
+  <si>
+    <t>f(4)</t>
+  </si>
+  <si>
+    <t>Version: 0.1.6</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1349,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -2129,11 +2138,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
+      <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,6 +3738,40 @@
       <c r="N96" s="24">
         <v>6</v>
       </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="24">
+        <v>16</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="K98" s="24" cm="1">
+        <f t="array" ref="K98">_xll.XLRCODE(D98,"f(asis)","function(n){n^2}")</f>
+        <v>16</v>
+      </c>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E445C26-7FB7-47E5-9A3E-45093D21D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B8EBD-A542-4119-A87D-CBEB8B95B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="1" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="193">
   <si>
     <t>Parameters</t>
   </si>
@@ -657,7 +657,10 @@
     <t>f(4)</t>
   </si>
   <si>
-    <t>Version: 0.1.6</t>
+    <t>Version: 0.1.7</t>
+  </si>
+  <si>
+    <t>Data frame with errors and empty cells (coerced to dfrn)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +890,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +974,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1287,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAB4AE-0D13-4266-B62E-7E643DED0D4D}">
   <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2138,11 +2148,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>188</v>
       </c>
@@ -3760,7 +3770,7 @@
       <c r="M98" s="24"/>
       <c r="N98" s="24"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
         <v>189</v>
       </c>
@@ -3772,6 +3782,121 @@
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
       <c r="N99" s="24"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I101" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K101" s="24" t="str" cm="1">
+        <f t="array" ref="K101:N103">_xll.XLRCODE(D101,"myDF(dfrn)",$P$102:$S$103)</f>
+        <v/>
+      </c>
+      <c r="L101" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M101" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N101" s="24" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1</v>
+      </c>
+      <c r="H102" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I102" s="24">
+        <v>4</v>
+      </c>
+      <c r="K102" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L102" s="24">
+        <v>1</v>
+      </c>
+      <c r="M102" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N102" s="24">
+        <v>4</v>
+      </c>
+      <c r="P102" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q102" s="39">
+        <v>1</v>
+      </c>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G103" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H103" s="24">
+        <v>3</v>
+      </c>
+      <c r="I103" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K103" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L103" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M103" s="24">
+        <v>3</v>
+      </c>
+      <c r="N103" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P103" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q103" s="39" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R103" s="39">
+        <v>3</v>
+      </c>
+      <c r="S103" s="39" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B8EBD-A542-4119-A87D-CBEB8B95B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B4400-CEFD-409B-941B-382FF78CEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="1" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
+    <workbookView xWindow="26400" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="15" r:id="rId1"/>
@@ -657,10 +657,10 @@
     <t>f(4)</t>
   </si>
   <si>
-    <t>Version: 0.1.7</t>
-  </si>
-  <si>
     <t>Data frame with errors and empty cells (coerced to dfrn)</t>
+  </si>
+  <si>
+    <t>Version: 0.1.8</t>
   </si>
 </sst>
 </file>
@@ -968,13 +968,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAB4AE-0D13-4266-B62E-7E643DED0D4D}">
   <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1359,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -2150,9 +2150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P89" sqref="P89"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,18 +2190,18 @@
       <c r="D5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="K5" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>128</v>
@@ -3844,14 +3844,14 @@
       <c r="N102" s="24">
         <v>4</v>
       </c>
-      <c r="P102" s="39" t="s">
+      <c r="P102" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="Q102" s="39">
+      <c r="Q102" s="37">
         <v>1</v>
       </c>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39">
+      <c r="R102" s="37"/>
+      <c r="S102" s="37">
         <v>4</v>
       </c>
     </row>
@@ -3883,17 +3883,17 @@
       <c r="N103" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P103" s="39" t="s">
+      <c r="P103" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Q103" s="39" t="e">
+      <c r="Q103" s="37" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="R103" s="39">
+      <c r="R103" s="37">
         <v>3</v>
       </c>
-      <c r="S103" s="39" t="e">
+      <c r="S103" s="37" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
@@ -3937,15 +3937,15 @@
       <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B4400-CEFD-409B-941B-382FF78CEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E93979-6134-4375-9618-0BA55CD84CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26400" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
@@ -603,9 +603,6 @@
     <t>ScriptPath</t>
   </si>
   <si>
-    <t>C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\xlRcode - Script Example.r</t>
-  </si>
-  <si>
     <t>Function returns the visible result of the last command of the script. In case it is not  visible, function returns TRUE.</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>Version: 0.1.8</t>
+  </si>
+  <si>
+    <t>C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\xlRcode - Script Example.r</t>
   </si>
 </sst>
 </file>
@@ -1297,9 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAB4AE-0D13-4266-B62E-7E643DED0D4D}">
   <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1359,7 +1357,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1830,7 +1828,7 @@
       <c r="B22" s="24"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -1859,7 +1857,7 @@
       <c r="B23" s="24"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -1986,7 +1984,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,10 +2016,10 @@
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -2137,7 +2135,7 @@
         <v>83</v>
       </c>
       <c r="J16" s="19" t="e" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">_xll.XLRGRAPH($D$16,$E$16,$F$16,$G$16,$H$16)</f>
+        <f t="array" aca="1" ref="J16" ca="1">XLRGRAPH($D$16,$E$16,$F$16,$G$16,$H$16)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2150,9 +2148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,10 +2727,10 @@
     </row>
     <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="F42" s="28">
         <v>37621</v>
@@ -2750,10 +2748,10 @@
     </row>
     <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="F44" s="28">
         <v>37621</v>
@@ -3751,10 +3749,10 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F98" s="24">
         <v>16</v>
@@ -3772,7 +3770,7 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
@@ -3785,7 +3783,7 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>128</v>
@@ -8360,10 +8358,10 @@
     </row>
     <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8399,7 +8397,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8522,10 +8520,10 @@
     </row>
     <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8573,7 +8571,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8662,7 +8660,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8703,10 +8701,10 @@
     </row>
     <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8742,7 +8740,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8792,7 +8790,7 @@
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>54</v>
@@ -8824,7 +8822,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8865,10 +8863,10 @@
     </row>
     <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8916,7 +8914,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8972,7 +8970,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>54</v>
@@ -9003,8 +9001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5044C5ED-33D5-4575-93EF-D4978E44B5E1}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9022,7 +9020,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -9047,10 +9045,10 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -9098,7 +9096,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -9530,7 +9528,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -9555,10 +9553,10 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -9618,7 +9616,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>

--- a/xlRcode - Main.xlsx
+++ b/xlRcode - Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E93979-6134-4375-9618-0BA55CD84CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3486379-6390-4DB5-AE1A-A662FD9B019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{8C7D3A3E-4110-4FC7-9D73-32F8899AF9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="15" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="203">
   <si>
     <t>Parameters</t>
   </si>
@@ -657,10 +657,40 @@
     <t>Data frame with errors and empty cells (coerced to dfrn)</t>
   </si>
   <si>
-    <t>Version: 0.1.8</t>
-  </si>
-  <si>
     <t>C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\GitHub\xlRcode - Script Example.r</t>
+  </si>
+  <si>
+    <t>Character with non-standard character</t>
+  </si>
+  <si>
+    <t>"ã"</t>
+  </si>
+  <si>
+    <t>ã</t>
+  </si>
+  <si>
+    <t>Character matrix with non-standard characters</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>matrix(c('áã', 'ã', 'éê', 'ô', 'ç', 'ü'), nrow=2)</t>
+  </si>
+  <si>
+    <t>áã</t>
+  </si>
+  <si>
+    <t>éê</t>
+  </si>
+  <si>
+    <t>Version: 0.1.9</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1387,7 @@
     <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="35" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -2146,11 +2176,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C5E71C-D440-4AF9-B9E3-94AD17C63402}">
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,20 +2551,20 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="K26" s="27" t="str" cm="1">
         <f t="array" ref="K26">_xll.XLRCODE(D26)</f>
-        <v>2.3</v>
+        <v>ã</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
@@ -2542,296 +2572,312 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="K28" s="27" t="str" cm="1">
-        <f t="array" ref="K28:M29">_xll.XLRCODE(D28)</f>
+        <f t="array" ref="K28">_xll.XLRCODE(D28)</f>
+        <v>2.3</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="K30" s="27" t="str" cm="1">
+        <f t="array" ref="K30:M31">_xll.XLRCODE(D30)</f>
         <v>a</v>
       </c>
-      <c r="L28" s="24" t="str">
+      <c r="L30" s="24" t="str">
         <v>c</v>
       </c>
-      <c r="M28" s="24" t="str">
+      <c r="M30" s="24" t="str">
         <v>e</v>
       </c>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F29" s="24" t="s">
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="K29" s="24" t="str">
+      <c r="I31" s="24"/>
+      <c r="K31" s="24" t="str">
         <v>b</v>
       </c>
-      <c r="L29" s="24" t="str">
+      <c r="L31" s="24" t="str">
         <v>d</v>
       </c>
-      <c r="M29" s="24" t="str">
+      <c r="M31" s="24" t="str">
         <v>f</v>
       </c>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="K31" s="27" t="b" cm="1">
-        <f t="array" ref="K31">_xll.XLRCODE(D31)</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
       <c r="N31" s="24"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="K33" s="27" t="str" cm="1">
+        <f t="array" ref="K33:M34">_xll.XLRCODE(D33)</f>
+        <v>áã</v>
+      </c>
+      <c r="L33" s="24" t="str">
+        <v>éê</v>
+      </c>
+      <c r="M33" s="24" t="str">
+        <v>ç</v>
+      </c>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="K34" s="24" t="str">
+        <v>ã</v>
+      </c>
+      <c r="L34" s="24" t="str">
+        <v>ô</v>
+      </c>
+      <c r="M34" s="24" t="str">
+        <v>ü</v>
+      </c>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="K36" s="27" t="b" cm="1">
+        <f t="array" ref="K36">_xll.XLRCODE(D36)</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="27" t="b">
+      <c r="F38" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="K33" s="27" t="b" cm="1">
-        <f t="array" ref="K33:K35">_xll.XLRCODE(D33)</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="K34" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F35" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="K35" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="K37" s="27" t="b" cm="1">
-        <f t="array" ref="K37:L38">_xll.XLRCODE(D37)</f>
-        <v>1</v>
-      </c>
-      <c r="L37" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="24" t="b">
-        <v>1</v>
-      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="K38" s="24" t="b">
+      <c r="K38" s="27" t="b" cm="1">
+        <f t="array" ref="K38:K40">_xll.XLRCODE(D38)</f>
         <v>1</v>
       </c>
-      <c r="L38" s="24" t="b">
-        <v>1</v>
-      </c>
+      <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="40" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="28">
-        <v>37621</v>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="K39" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="24" t="b">
+        <v>0</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="K40" s="28" cm="1">
-        <f t="array" ref="K40">_xll.XLRCODE(D40)</f>
-        <v>37621</v>
+      <c r="K40" s="24" t="b">
+        <v>0</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
     </row>
-    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="28">
-        <v>37621</v>
-      </c>
-      <c r="G42" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="F42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="K42" s="28" cm="1">
-        <f t="array" ref="K42">_xll.XLRCODE(D42)</f>
-        <v>37621</v>
-      </c>
-      <c r="L42" s="24"/>
+      <c r="K42" s="27" t="b" cm="1">
+        <f t="array" ref="K42:L43">_xll.XLRCODE(D42)</f>
+        <v>1</v>
+      </c>
+      <c r="L42" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
     </row>
-    <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" s="28">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="K43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="28">
         <v>37621</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="K44" s="28" cm="1">
-        <f t="array" ref="K44:K45">_xll.XLRCODE(D44)</f>
-        <v>37621</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F45" s="28">
-        <v>37622</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="K45" s="28">
-        <v>37622</v>
+      <c r="K45" s="28" cm="1">
+        <f t="array" ref="K45">_xll.XLRCODE(D45)</f>
+        <v>37621</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>29</v>
+        <v>181</v>
+      </c>
+      <c r="F47" s="28">
+        <v>37621</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
-      <c r="K47" s="24" t="str" cm="1">
+      <c r="K47" s="28" cm="1">
         <f t="array" ref="K47">_xll.XLRCODE(D47)</f>
-        <v>1+2i</v>
+        <v>37621</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>29</v>
+        <v>183</v>
+      </c>
+      <c r="F49" s="28">
+        <v>37621</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-      <c r="K49" s="24" t="str" cm="1">
+      <c r="K49" s="28" cm="1">
         <f t="array" ref="K49:K50">_xll.XLRCODE(D49)</f>
-        <v>1+2i</v>
+        <v>37621</v>
       </c>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F50" s="24" t="s">
-        <v>109</v>
+      <c r="F50" s="28">
+        <v>37622</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="K50" s="24" t="str">
-        <v>2+3i</v>
+      <c r="K50" s="28">
+        <v>37622</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -2839,1059 +2885,1115 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="K52" s="24" t="str" cm="1">
-        <f t="array" ref="K52:L53">_xll.XLRCODE(D52)</f>
+        <f t="array" ref="K52">_xll.XLRCODE(D52)</f>
         <v>1+2i</v>
       </c>
-      <c r="L52" s="24" t="str">
-        <v>4+10i</v>
-      </c>
+      <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="24" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="K54" s="24" t="str" cm="1">
+        <f t="array" ref="K54:K55">_xll.XLRCODE(D54)</f>
+        <v>1+2i</v>
+      </c>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="K53" s="24" t="str">
-        <v>2+3i</v>
-      </c>
-      <c r="L53" s="24" t="str">
-        <v>7+12i</v>
-      </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
-      <c r="K55" s="24" t="str" cm="1">
-        <f t="array" ref="K55">_xll.XLRCODE(D55)</f>
-        <v/>
+      <c r="K55" s="24" t="str">
+        <v>2+3i</v>
       </c>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
     </row>
-    <row r="57" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>114</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
       <c r="K57" s="24" t="str" cm="1">
-        <f t="array" ref="K57:N59">_xll.XLRCODE(D57)</f>
-        <v/>
+        <f t="array" ref="K57:L58">_xll.XLRCODE(D57)</f>
+        <v>1+2i</v>
       </c>
       <c r="L57" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M57" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N57" s="24" t="str">
-        <v>V3</v>
-      </c>
+        <v>4+10i</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F58" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="K58" s="24" t="str">
+        <v>2+3i</v>
+      </c>
+      <c r="L58" s="24" t="str">
+        <v>7+12i</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="K60" s="24" t="str" cm="1">
+        <f t="array" ref="K60">_xll.XLRCODE(D60)</f>
+        <v/>
+      </c>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="62" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K62" s="24" t="str" cm="1">
+        <f t="array" ref="K62:N64">_xll.XLRCODE(D62)</f>
+        <v/>
+      </c>
+      <c r="L62" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M62" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N62" s="24" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G63" s="24">
         <v>1</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H63" s="24">
         <v>2</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I63" s="24">
         <v>3</v>
       </c>
-      <c r="K58" s="24" t="str">
+      <c r="K63" s="24" t="str">
         <v>1</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L63" s="24">
         <v>1</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M63" s="24">
         <v>2</v>
       </c>
-      <c r="N58" s="24">
+      <c r="N63" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F59" s="24" t="s">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G64" s="24">
         <v>4</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H64" s="24">
         <v>5</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I64" s="24">
         <v>6</v>
       </c>
-      <c r="K59" s="24" t="str">
+      <c r="K64" s="24" t="str">
         <v>2</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L64" s="24">
         <v>4</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M64" s="24">
         <v>5</v>
       </c>
-      <c r="N59" s="24">
+      <c r="N64" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D67" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="24" t="e">
+      <c r="F67" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="K62" s="24" t="e" cm="1">
-        <f t="array" ref="K62">_xll.XLRCODE(D62)</f>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="K67" s="24" t="e" cm="1">
+        <f t="array" ref="K67">_xll.XLRCODE(D67)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D69" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="24" t="b">
+      <c r="F69" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="K64" s="24" t="b" cm="1">
-        <f t="array" ref="K64">_xll.XLRCODE(D64)</f>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="K69" s="24" t="b" cm="1">
+        <f t="array" ref="K69">_xll.XLRCODE(D69)</f>
         <v>1</v>
       </c>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D71" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F71" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G71" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H71" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I71" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="K66" s="24" t="str" cm="1">
-        <f t="array" ref="K66:N68">_xll.XLRCODE(D66,"myDF(df)",{1,2,3;"a","b","c"})</f>
+      <c r="K71" s="24" t="str" cm="1">
+        <f t="array" ref="K71:N73">_xll.XLRCODE(D71,"myDF(df)",{1,2,3;"a","b","c"})</f>
         <v/>
       </c>
-      <c r="L66" s="24" t="str">
+      <c r="L71" s="24" t="str">
         <v>V1</v>
       </c>
-      <c r="M66" s="24" t="str">
+      <c r="M71" s="24" t="str">
         <v>V2</v>
       </c>
-      <c r="N66" s="24" t="str">
+      <c r="N71" s="24" t="str">
         <v>V3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F67" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L67" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="M67" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="N67" s="24" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F68" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K68" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="L68" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M68" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N68" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K70" s="24" t="str" cm="1">
-        <f t="array" ref="K70:N72">_xll.XLRCODE(D70,"myDF(dfn)",{1,2,3;4,5,6})</f>
-        <v/>
-      </c>
-      <c r="L70" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M70" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N70" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L71" s="24">
-        <v>1</v>
-      </c>
-      <c r="M71" s="24">
-        <v>2</v>
-      </c>
-      <c r="N71" s="24">
-        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F72" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G72" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="I72" s="24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K72" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L72" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M72" s="24" t="str">
         <v>2</v>
       </c>
-      <c r="L72" s="24">
-        <v>4</v>
-      </c>
-      <c r="M72" s="24">
-        <v>5</v>
-      </c>
-      <c r="N72" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="25" t="s">
+      <c r="N72" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F73" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L73" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M73" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N73" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F75" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G74" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K74" s="24" t="str" cm="1">
-        <f t="array" ref="K74:N76">_xll.XLRCODE(D74,"myDF(dfh)",{"","colA","colB","colC";"rowA",1,2,3;"rowB","a","b","c"})</f>
+      <c r="G75" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K75" s="24" t="str" cm="1">
+        <f t="array" ref="K75:N77">_xll.XLRCODE(D75,"myDF(dfn)",{1,2,3;4,5,6})</f>
         <v/>
       </c>
-      <c r="L74" s="24" t="str">
-        <v>colA</v>
-      </c>
-      <c r="M74" s="24" t="str">
-        <v>colB</v>
-      </c>
-      <c r="N74" s="24" t="str">
-        <v>colC</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" s="24" t="str">
-        <v>rowA</v>
-      </c>
       <c r="L75" s="24" t="str">
-        <v>1</v>
+        <v>V1</v>
       </c>
       <c r="M75" s="24" t="str">
-        <v>2</v>
+        <v>V2</v>
       </c>
       <c r="N75" s="24" t="str">
-        <v>3</v>
+        <v>V3</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="32" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="K76" s="24" t="str">
-        <v>rowB</v>
-      </c>
-      <c r="L76" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M76" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N76" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="24">
+        <v>1</v>
+      </c>
+      <c r="M76" s="24">
+        <v>2</v>
+      </c>
+      <c r="N76" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F77" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L77" s="24">
+        <v>4</v>
+      </c>
+      <c r="M77" s="24">
+        <v>5</v>
+      </c>
+      <c r="N77" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F79" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G79" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H78" s="24" t="s">
+      <c r="H79" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I79" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K78" s="24" t="str" cm="1">
-        <f t="array" ref="K78:N80">_xll.XLRCODE(D78,"myDF(dfhn)",{"","colA","colB","colC";"rowA",1,2,3;"rowB",4,5,6})</f>
+      <c r="K79" s="24" t="str" cm="1">
+        <f t="array" ref="K79:N81">_xll.XLRCODE(D79,"myDF(dfh)",{"","colA","colB","colC";"rowA",1,2,3;"rowB","a","b","c"})</f>
         <v/>
       </c>
-      <c r="L78" s="24" t="str">
+      <c r="L79" s="24" t="str">
         <v>colA</v>
       </c>
-      <c r="M78" s="24" t="str">
+      <c r="M79" s="24" t="str">
         <v>colB</v>
       </c>
-      <c r="N78" s="24" t="str">
+      <c r="N79" s="24" t="str">
         <v>colC</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="24">
-        <v>1</v>
-      </c>
-      <c r="H79" s="24">
-        <v>2</v>
-      </c>
-      <c r="I79" s="24">
-        <v>3</v>
-      </c>
-      <c r="K79" s="24" t="str">
-        <v>rowA</v>
-      </c>
-      <c r="L79" s="24">
-        <v>1</v>
-      </c>
-      <c r="M79" s="24">
-        <v>2</v>
-      </c>
-      <c r="N79" s="24">
-        <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K80" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L80" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M80" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="N80" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F81" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="24">
-        <v>4</v>
-      </c>
-      <c r="H80" s="24">
-        <v>5</v>
-      </c>
-      <c r="I80" s="24">
-        <v>6</v>
-      </c>
-      <c r="K80" s="24" t="str">
+      <c r="G81" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" s="24" t="str">
         <v>rowB</v>
       </c>
-      <c r="L80" s="24">
-        <v>4</v>
-      </c>
-      <c r="M80" s="24">
-        <v>5</v>
-      </c>
-      <c r="N80" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="25" t="s">
+      <c r="L81" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M81" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N81" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F83" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G83" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="24" t="s">
+      <c r="H83" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="24" t="s">
+      <c r="I83" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K82" s="24" t="str" cm="1">
-        <f t="array" ref="K82:N84">_xll.XLRCODE(D82,"myDF(dfc)",{"colA","colB","colC";1,2,3;"a","b","c"})</f>
+      <c r="K83" s="24" t="str" cm="1">
+        <f t="array" ref="K83:N85">_xll.XLRCODE(D83,"myDF(dfhn)",{"","colA","colB","colC";"rowA",1,2,3;"rowB",4,5,6})</f>
         <v/>
       </c>
-      <c r="L82" s="24" t="str">
+      <c r="L83" s="24" t="str">
         <v>colA</v>
       </c>
-      <c r="M82" s="24" t="str">
+      <c r="M83" s="24" t="str">
         <v>colB</v>
       </c>
-      <c r="N82" s="24" t="str">
+      <c r="N83" s="24" t="str">
         <v>colC</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K83" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L83" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="M83" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="N83" s="24" t="str">
-        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="24">
+        <v>1</v>
+      </c>
+      <c r="H84" s="24">
+        <v>2</v>
+      </c>
+      <c r="I84" s="24">
+        <v>3</v>
+      </c>
+      <c r="K84" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L84" s="24">
+        <v>1</v>
+      </c>
+      <c r="M84" s="24">
+        <v>2</v>
+      </c>
+      <c r="N84" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K84" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="L84" s="24" t="str">
-        <v>a</v>
-      </c>
-      <c r="M84" s="24" t="str">
-        <v>b</v>
-      </c>
-      <c r="N84" s="24" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="25" t="s">
+      <c r="F85" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="24">
+        <v>4</v>
+      </c>
+      <c r="H85" s="24">
+        <v>5</v>
+      </c>
+      <c r="I85" s="24">
+        <v>6</v>
+      </c>
+      <c r="K85" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L85" s="24">
+        <v>4</v>
+      </c>
+      <c r="M85" s="24">
+        <v>5</v>
+      </c>
+      <c r="N85" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F87" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G86" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K86" s="24" t="str" cm="1">
-        <f t="array" ref="K86:N88">_xll.XLRCODE(D86,"myDF(dfr)",{"rowA",1,2,3;"rowB","a","b","c"})</f>
+      <c r="G87" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K87" s="24" t="str" cm="1">
+        <f t="array" ref="K87:N89">_xll.XLRCODE(D87,"myDF(dfc)",{"colA","colB","colC";1,2,3;"a","b","c"})</f>
         <v/>
       </c>
-      <c r="L86" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M86" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N86" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K87" s="24" t="str">
-        <v>rowA</v>
-      </c>
       <c r="L87" s="24" t="str">
-        <v>1</v>
+        <v>colA</v>
       </c>
       <c r="M87" s="24" t="str">
-        <v>2</v>
+        <v>colB</v>
       </c>
       <c r="N87" s="24" t="str">
-        <v>3</v>
+        <v>colC</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L88" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M88" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="N88" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F88" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="24" t="s">
+      <c r="F89" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H88" s="24" t="s">
+      <c r="H89" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="24" t="s">
+      <c r="I89" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K88" s="24" t="str">
-        <v>rowB</v>
-      </c>
-      <c r="L88" s="24" t="str">
+      <c r="K89" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L89" s="24" t="str">
         <v>a</v>
       </c>
-      <c r="M88" s="24" t="str">
+      <c r="M89" s="24" t="str">
         <v>b</v>
       </c>
-      <c r="N88" s="24" t="str">
+      <c r="N89" s="24" t="str">
         <v>c</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="25" t="s">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F91" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G90" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K90" s="24" t="str" cm="1">
-        <f t="array" ref="K90:N92">_xll.XLRCODE(D90,"myDF(dfcn)",{"colA","colB","colC";1,2,3;4,5,6})</f>
+      <c r="G91" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K91" s="24" t="str" cm="1">
+        <f t="array" ref="K91:N93">_xll.XLRCODE(D91,"myDF(dfr)",{"rowA",1,2,3;"rowB","a","b","c"})</f>
         <v/>
       </c>
-      <c r="L90" s="24" t="str">
-        <v>colA</v>
-      </c>
-      <c r="M90" s="24" t="str">
-        <v>colB</v>
-      </c>
-      <c r="N90" s="24" t="str">
-        <v>colC</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" s="24">
-        <v>1</v>
-      </c>
-      <c r="H91" s="24">
-        <v>2</v>
-      </c>
-      <c r="I91" s="24">
-        <v>3</v>
-      </c>
-      <c r="K91" s="24" t="str">
-        <v>1</v>
-      </c>
-      <c r="L91" s="24">
-        <v>1</v>
-      </c>
-      <c r="M91" s="24">
-        <v>2</v>
-      </c>
-      <c r="N91" s="24">
-        <v>3</v>
+      <c r="L91" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M91" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N91" s="24" t="str">
+        <v>V3</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L92" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M92" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="N92" s="24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F92" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" s="24">
-        <v>4</v>
-      </c>
-      <c r="H92" s="24">
-        <v>5</v>
-      </c>
-      <c r="I92" s="24">
-        <v>6</v>
-      </c>
-      <c r="K92" s="24" t="str">
-        <v>2</v>
-      </c>
-      <c r="L92" s="24">
-        <v>4</v>
-      </c>
-      <c r="M92" s="24">
-        <v>5</v>
-      </c>
-      <c r="N92" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="F93" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" s="24" t="str">
+        <v>rowB</v>
+      </c>
+      <c r="L93" s="24" t="str">
+        <v>a</v>
+      </c>
+      <c r="M93" s="24" t="str">
+        <v>b</v>
+      </c>
+      <c r="N93" s="24" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F95" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G94" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I94" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K94" s="24" t="str" cm="1">
-        <f t="array" ref="K94:N96">_xll.XLRCODE(D94,"myDF(dfrn)",{"rowA",1,2,3;"rowB",4,5,6})</f>
+      <c r="G95" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95" s="24" t="str" cm="1">
+        <f t="array" ref="K95:N97">_xll.XLRCODE(D95,"myDF(dfcn)",{"colA","colB","colC";1,2,3;4,5,6})</f>
         <v/>
       </c>
-      <c r="L94" s="24" t="str">
-        <v>V1</v>
-      </c>
-      <c r="M94" s="24" t="str">
-        <v>V2</v>
-      </c>
-      <c r="N94" s="24" t="str">
-        <v>V3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="24">
-        <v>1</v>
-      </c>
-      <c r="H95" s="24">
-        <v>2</v>
-      </c>
-      <c r="I95" s="24">
-        <v>3</v>
-      </c>
-      <c r="K95" s="24" t="str">
-        <v>rowA</v>
-      </c>
-      <c r="L95" s="24">
-        <v>1</v>
-      </c>
-      <c r="M95" s="24">
-        <v>2</v>
-      </c>
-      <c r="N95" s="24">
-        <v>3</v>
+      <c r="L95" s="24" t="str">
+        <v>colA</v>
+      </c>
+      <c r="M95" s="24" t="str">
+        <v>colB</v>
+      </c>
+      <c r="N95" s="24" t="str">
+        <v>colC</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96" s="24">
+        <v>1</v>
+      </c>
+      <c r="H96" s="24">
+        <v>2</v>
+      </c>
+      <c r="I96" s="24">
+        <v>3</v>
+      </c>
+      <c r="K96" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="L96" s="24">
+        <v>1</v>
+      </c>
+      <c r="M96" s="24">
+        <v>2</v>
+      </c>
+      <c r="N96" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="F97" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="24">
+        <v>4</v>
+      </c>
+      <c r="H97" s="24">
+        <v>5</v>
+      </c>
+      <c r="I97" s="24">
+        <v>6</v>
+      </c>
+      <c r="K97" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="L97" s="24">
+        <v>4</v>
+      </c>
+      <c r="M97" s="24">
+        <v>5</v>
+      </c>
+      <c r="N97" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K99" s="24" t="str" cm="1">
+        <f t="array" ref="K99:N101">_xll.XLRCODE(D99,"myDF(dfrn)",{"rowA",1,2,3;"rowB",4,5,6})</f>
+        <v/>
+      </c>
+      <c r="L99" s="24" t="str">
+        <v>V1</v>
+      </c>
+      <c r="M99" s="24" t="str">
+        <v>V2</v>
+      </c>
+      <c r="N99" s="24" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G100" s="24">
+        <v>1</v>
+      </c>
+      <c r="H100" s="24">
+        <v>2</v>
+      </c>
+      <c r="I100" s="24">
+        <v>3</v>
+      </c>
+      <c r="K100" s="24" t="str">
+        <v>rowA</v>
+      </c>
+      <c r="L100" s="24">
+        <v>1</v>
+      </c>
+      <c r="M100" s="24">
+        <v>2</v>
+      </c>
+      <c r="N100" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="24">
+      <c r="G101" s="24">
         <v>4</v>
       </c>
-      <c r="H96" s="24">
+      <c r="H101" s="24">
         <v>5</v>
       </c>
-      <c r="I96" s="24">
+      <c r="I101" s="24">
         <v>6</v>
       </c>
-      <c r="K96" s="24" t="str">
+      <c r="K101" s="24" t="str">
         <v>rowB</v>
       </c>
-      <c r="L96" s="24">
+      <c r="L101" s="24">
         <v>4</v>
       </c>
-      <c r="M96" s="24">
+      <c r="M101" s="24">
         <v>5</v>
       </c>
-      <c r="N96" s="24">
+      <c r="N101" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D103" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F98" s="24">
+      <c r="F103" s="24">
         <v>16</v>
       </c>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="K98" s="24" cm="1">
-        <f t="array" ref="K98">_xll.XLRCODE(D98,"f(asis)","function(n){n^2}")</f>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="K103" s="24" cm="1">
+        <f t="array" ref="K103">_xll.XLRCODE(D103,"f(asis)","function(n){n^2}")</f>
         <v>16</v>
       </c>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B99" s="32" t="s">
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D106" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F106" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G106" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H106" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I101" s="24" t="s">
+      <c r="I106" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="K101" s="24" t="str" cm="1">
-        <f t="array" ref="K101:N103">_xll.XLRCODE(D101,"myDF(dfrn)",$P$102:$S$103)</f>
+      <c r="K106" s="24" t="str" cm="1">
+        <f t="array" ref="K106:N108">_xll.XLRCODE(D106,"myDF(dfrn)",$P$107:$S$108)</f>
         <v/>
       </c>
-      <c r="L101" s="24" t="str">
+      <c r="L106" s="24" t="str">
         <v>V1</v>
       </c>
-      <c r="M101" s="24" t="str">
+      <c r="M106" s="24" t="str">
         <v>V2</v>
       </c>
-      <c r="N101" s="24" t="str">
+      <c r="N106" s="24" t="str">
         <v>V3</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="32" t="s">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B107" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="24" t="s">
+      <c r="F107" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G102" s="24">
+      <c r="G107" s="24">
         <v>1</v>
       </c>
-      <c r="H102" s="24" t="e">
+      <c r="H107" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I107" s="24">
         <v>4</v>
       </c>
-      <c r="K102" s="24" t="str">
+      <c r="K107" s="24" t="str">
         <v>rowA</v>
       </c>
-      <c r="L102" s="24">
+      <c r="L107" s="24">
         <v>1</v>
       </c>
-      <c r="M102" s="24" t="e">
+      <c r="M107" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="N102" s="24">
+      <c r="N107" s="24">
         <v>4</v>
       </c>
-      <c r="P102" s="37" t="s">
+      <c r="P107" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="Q102" s="37">
+      <c r="Q107" s="37">
         <v>1</v>
       </c>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37">
+      <c r="R107" s="37"/>
+      <c r="S107" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B103" s="32" t="s">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="24" t="s">
+      <c r="F108" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G103" s="24" t="e">
+      <c r="G108" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="H103" s="24">
+      <c r="H108" s="24">
         <v>3</v>
       </c>
-      <c r="I103" s="24" t="e">
+      <c r="I108" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K103" s="24" t="str">
+      <c r="K108" s="24" t="str">
         <v>rowB</v>
       </c>
-      <c r="L103" s="24" t="e">
+      <c r="L108" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M103" s="24">
+      <c r="M108" s="24">
         <v>3</v>
       </c>
-      <c r="N103" s="24" t="e">
+      <c r="N108" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P103" s="37" t="s">
+      <c r="P108" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Q103" s="37" t="e">
+      <c r="Q108" s="37" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="R103" s="37">
+      <c r="R108" s="37">
         <v>3</v>
       </c>
-      <c r="S103" s="37" t="e">
+      <c r="S108" s="37" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
@@ -8790,7 +8892,7 @@
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>54</v>
@@ -8970,7 +9072,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>54</v>
